--- a/testData/login.xlsx
+++ b/testData/login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Automation\Robot_Framework_Sample\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\Sample\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8517F90E-BF9C-465D-95F7-FB43DB7FE8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4997650-EC17-4A24-AAEC-F5F79A500EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{C1AB52E4-D851-41B0-8EDC-B02CEA9C830F}"/>
   </bookViews>
@@ -46,13 +46,13 @@
     <t>sm.madadpour@gmail.com</t>
   </si>
   <si>
+    <t>870014207_SM</t>
+  </si>
+  <si>
     <t>expectedResult</t>
   </si>
   <si>
     <t>Enter an email or phone number</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -512,14 +512,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
